--- a/MyHome_Loan_20190927.xlsx
+++ b/MyHome_Loan_20190927.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,6 +602,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,12 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="10" spans="2:9" ht="13.5" customHeight="1"/>
     <row r="11" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B11" s="36"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B12" s="37"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="2:9" ht="13.5" customHeight="1"/>
     <row r="14" spans="2:9" ht="13.5" customHeight="1"/>
@@ -1040,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1065,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -1079,7 +1079,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="27" t="s">
         <v>30</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="27" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="27" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1115,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="28" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="28" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="28" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="30" t="s">
         <v>31</v>
       </c>

--- a/MyHome_Loan_20190927.xlsx
+++ b/MyHome_Loan_20190927.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
@@ -1040,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>

--- a/MyHome_Loan_20190927.xlsx
+++ b/MyHome_Loan_20190927.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="C10:E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
